--- a/data/trans_orig/CLASESOCIAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC41B6CB-F68A-4772-8FBD-3828939D2BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B01F06-30A5-4BB9-B027-57BE441E2EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08395CEC-25E4-430B-9B8B-3EF4AB5E12DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50D9D35A-A5AD-47F0-BF31-0916123373DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="824">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -91,2404 +91,2416 @@
     <t>55,15%</t>
   </si>
   <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>64,78%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2016 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
   </si>
   <si>
     <t>18,46%</t>
@@ -2909,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AC6791-6E79-4560-8B98-364A359B1992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C74EA1-B5D2-4848-AEE0-D7F46A0EA2B7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3777,10 +3789,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>300</v>
@@ -3789,13 +3801,13 @@
         <v>322916</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>633</v>
@@ -3804,13 +3816,13 @@
         <v>673956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3837,13 @@
         <v>127983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -3840,13 +3852,13 @@
         <v>60355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3855,13 +3867,13 @@
         <v>188338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3888,13 @@
         <v>69243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -3891,13 +3903,13 @@
         <v>88584</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>145</v>
@@ -3906,13 +3918,13 @@
         <v>157828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3939,13 @@
         <v>82914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3942,13 +3954,13 @@
         <v>72858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3957,13 +3969,13 @@
         <v>155772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4031,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4043,13 @@
         <v>109556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -4046,13 +4058,13 @@
         <v>99254</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -4061,10 +4073,10 @@
         <v>208810</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>134</v>
@@ -4133,13 +4145,13 @@
         <v>25354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4148,13 +4160,13 @@
         <v>14381</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -4163,13 +4175,13 @@
         <v>39735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4196,13 @@
         <v>18576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -4199,13 +4211,13 @@
         <v>22782</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -4214,13 +4226,13 @@
         <v>41359</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4288,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4288,13 +4300,13 @@
         <v>132640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>118</v>
@@ -4303,13 +4315,13 @@
         <v>122321</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>248</v>
@@ -4318,13 +4330,13 @@
         <v>254961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4351,13 @@
         <v>36908</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -4354,13 +4366,13 @@
         <v>17255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -4369,13 +4381,13 @@
         <v>54163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4402,13 @@
         <v>27592</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4405,13 +4417,13 @@
         <v>14432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -4420,13 +4432,13 @@
         <v>42024</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4453,13 @@
         <v>53944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -4456,13 +4468,13 @@
         <v>26844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -4471,13 +4483,13 @@
         <v>80787</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4545,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4545,13 +4557,13 @@
         <v>319052</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -4560,13 +4572,13 @@
         <v>279848</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M34" s="7">
         <v>549</v>
@@ -4575,13 +4587,13 @@
         <v>598900</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4608,13 @@
         <v>112534</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -4611,13 +4623,13 @@
         <v>63712</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>170</v>
@@ -4626,13 +4638,13 @@
         <v>176246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4659,13 @@
         <v>92052</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -4662,13 +4674,13 @@
         <v>71724</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="M36" s="7">
         <v>146</v>
@@ -4677,13 +4689,13 @@
         <v>163776</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4710,13 @@
         <v>92049</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -4713,13 +4725,13 @@
         <v>60768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>138</v>
@@ -4728,13 +4740,13 @@
         <v>152816</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4802,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4802,13 +4814,13 @@
         <v>355213</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H39" s="7">
         <v>345</v>
@@ -4820,10 +4832,10 @@
         <v>19</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7">
         <v>665</v>
@@ -4832,13 +4844,13 @@
         <v>729128</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4865,13 @@
         <v>158200</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H40" s="7">
         <v>55</v>
@@ -4868,13 +4880,13 @@
         <v>59651</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>202</v>
@@ -4883,13 +4895,13 @@
         <v>217851</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4916,13 @@
         <v>106588</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -4919,13 +4931,13 @@
         <v>71451</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="M41" s="7">
         <v>160</v>
@@ -4934,13 +4946,13 @@
         <v>178039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4967,13 @@
         <v>91219</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="H42" s="7">
         <v>62</v>
@@ -4970,13 +4982,13 @@
         <v>72169</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M42" s="7">
         <v>148</v>
@@ -4985,13 +4997,13 @@
         <v>163388</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5071,13 @@
         <v>1669606</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>1414</v>
@@ -5074,13 +5086,13 @@
         <v>1528179</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>2984</v>
@@ -5089,13 +5101,13 @@
         <v>3197785</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5122,13 @@
         <v>629415</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H45" s="7">
         <v>244</v>
@@ -5125,13 +5137,13 @@
         <v>260129</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="M45" s="7">
         <v>835</v>
@@ -5140,13 +5152,13 @@
         <v>889544</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5173,13 @@
         <v>418797</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H46" s="7">
         <v>305</v>
@@ -5176,13 +5188,13 @@
         <v>338011</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M46" s="7">
         <v>680</v>
@@ -5191,13 +5203,13 @@
         <v>756808</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5224,13 @@
         <v>437211</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>283</v>
@@ -5227,13 +5239,13 @@
         <v>314454</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M47" s="7">
         <v>687</v>
@@ -5242,13 +5254,13 @@
         <v>751665</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5316,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5328,7 +5340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E0C083-6FAB-48A6-B5B7-77F9CFD32165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E71C82-D351-4BF7-8629-64191356BA6C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5345,7 +5357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5452,13 +5464,13 @@
         <v>169008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -5467,13 +5479,13 @@
         <v>162577</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>314</v>
@@ -5482,13 +5494,13 @@
         <v>331585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5515,13 @@
         <v>41882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5518,13 +5530,13 @@
         <v>7731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5533,13 +5545,13 @@
         <v>49613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5566,13 @@
         <v>28229</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -5569,13 +5581,13 @@
         <v>27685</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -5584,13 +5596,13 @@
         <v>55915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5617,13 @@
         <v>35010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -5620,13 +5632,13 @@
         <v>35662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5635,13 +5647,13 @@
         <v>70672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5721,13 @@
         <v>280391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>175</v>
@@ -5724,13 +5736,13 @@
         <v>186480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>440</v>
@@ -5739,13 +5751,13 @@
         <v>466870</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5772,13 @@
         <v>97875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5775,13 +5787,13 @@
         <v>13148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -5790,13 +5802,13 @@
         <v>111023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5823,13 @@
         <v>36780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5826,13 +5838,13 @@
         <v>34216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5841,13 +5853,13 @@
         <v>70996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5874,13 @@
         <v>35941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -5877,13 +5889,13 @@
         <v>43308</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -5892,13 +5904,13 @@
         <v>79249</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5978,13 @@
         <v>172339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -5981,13 +5993,13 @@
         <v>162214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>344</v>
@@ -5996,13 +6008,13 @@
         <v>334553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6029,13 @@
         <v>41216</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -6032,13 +6044,13 @@
         <v>22182</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
@@ -6047,13 +6059,13 @@
         <v>63398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>374</v>
+        <v>142</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>376</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,10 +6083,10 @@
         <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6083,7 +6095,7 @@
         <v>29983</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>379</v>
@@ -6119,13 +6131,13 @@
         <v>32616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -6134,13 +6146,13 @@
         <v>37309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -6149,13 +6161,13 @@
         <v>69925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6235,13 @@
         <v>189607</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>179</v>
@@ -6238,13 +6250,13 @@
         <v>189215</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -6253,13 +6265,13 @@
         <v>378823</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,10 +6286,10 @@
         <v>53075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>401</v>
@@ -6295,7 +6307,7 @@
         <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -6304,13 +6316,13 @@
         <v>66991</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6337,13 @@
         <v>44353</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -6340,13 +6352,13 @@
         <v>35725</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M21" s="7">
         <v>72</v>
@@ -6358,10 +6370,10 @@
         <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6388,13 @@
         <v>41652</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6391,13 +6403,13 @@
         <v>36381</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -6406,13 +6418,13 @@
         <v>78033</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6480,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6534,10 +6546,10 @@
         <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>212</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6546,13 +6558,13 @@
         <v>7767</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -6561,13 +6573,13 @@
         <v>45787</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6594,13 @@
         <v>17757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>34</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -6597,13 +6609,13 @@
         <v>21214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6612,13 +6624,13 @@
         <v>38971</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6645,13 @@
         <v>21826</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -6648,13 +6660,13 @@
         <v>11039</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M27" s="7">
         <v>33</v>
@@ -6663,13 +6675,13 @@
         <v>32865</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,7 +6737,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6737,13 +6749,13 @@
         <v>139012</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>108</v>
@@ -6752,13 +6764,13 @@
         <v>109774</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>246</v>
@@ -6767,13 +6779,13 @@
         <v>248786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6800,13 @@
         <v>47056</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>463</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6803,13 +6815,13 @@
         <v>14376</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -6818,13 +6830,13 @@
         <v>61432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6851,13 @@
         <v>20936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6854,13 +6866,13 @@
         <v>14064</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -6869,13 +6881,13 @@
         <v>35000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6902,13 @@
         <v>28794</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -6905,13 +6917,13 @@
         <v>18715</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>478</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -6920,13 +6932,13 @@
         <v>47510</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +6994,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6994,13 +7006,13 @@
         <v>325887</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>258</v>
@@ -7009,13 +7021,13 @@
         <v>277136</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M34" s="7">
         <v>553</v>
@@ -7024,13 +7036,13 @@
         <v>603022</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7057,13 @@
         <v>76342</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>30</v>
@@ -7060,13 +7072,13 @@
         <v>32601</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M35" s="7">
         <v>97</v>
@@ -7075,13 +7087,13 @@
         <v>108943</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>498</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7108,13 @@
         <v>84588</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>107</v>
@@ -7111,13 +7123,13 @@
         <v>114977</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M36" s="7">
         <v>181</v>
@@ -7126,13 +7138,13 @@
         <v>199565</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7159,13 @@
         <v>110117</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -7162,13 +7174,13 @@
         <v>66892</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M37" s="7">
         <v>158</v>
@@ -7177,13 +7189,13 @@
         <v>177010</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>317</v>
+        <v>515</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,7 +7251,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7251,13 +7263,13 @@
         <v>372429</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H39" s="7">
         <v>328</v>
@@ -7266,13 +7278,13 @@
         <v>352680</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M39" s="7">
         <v>687</v>
@@ -7281,13 +7293,13 @@
         <v>725109</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7314,13 @@
         <v>126447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H40" s="7">
         <v>49</v>
@@ -7317,13 +7329,13 @@
         <v>54402</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>410</v>
+        <v>529</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M40" s="7">
         <v>173</v>
@@ -7335,10 +7347,10 @@
         <v>34</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7365,13 @@
         <v>98108</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H41" s="7">
         <v>88</v>
@@ -7368,13 +7380,13 @@
         <v>94409</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M41" s="7">
         <v>182</v>
@@ -7383,13 +7395,13 @@
         <v>192517</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>219</v>
+        <v>540</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7416,13 @@
         <v>123136</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>90</v>
@@ -7419,13 +7431,13 @@
         <v>97748</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>281</v>
+        <v>546</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="M42" s="7">
         <v>207</v>
@@ -7434,13 +7446,13 @@
         <v>220883</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7520,13 @@
         <v>1770344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H44" s="7">
         <v>1497</v>
@@ -7523,13 +7535,13 @@
         <v>1564120</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="M44" s="7">
         <v>3197</v>
@@ -7538,13 +7550,13 @@
         <v>3334464</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7571,13 @@
         <v>521914</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H45" s="7">
         <v>153</v>
@@ -7574,13 +7586,13 @@
         <v>166123</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="M45" s="7">
         <v>655</v>
@@ -7589,13 +7601,13 @@
         <v>688036</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>279</v>
+        <v>564</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7622,13 @@
         <v>377227</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="H46" s="7">
         <v>352</v>
@@ -7625,13 +7637,13 @@
         <v>372273</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>563</v>
+        <v>380</v>
       </c>
       <c r="M46" s="7">
         <v>706</v>
@@ -7640,13 +7652,13 @@
         <v>749500</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7673,13 @@
         <v>429092</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>340</v>
+        <v>573</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="H47" s="7">
         <v>332</v>
@@ -7676,13 +7688,13 @@
         <v>347055</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="M47" s="7">
         <v>728</v>
@@ -7691,13 +7703,13 @@
         <v>776147</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7765,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +7789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4896F0A8-243F-488A-98B2-349E86E0B8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05662E10-50D5-48B0-8225-E5F395ED9C5D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7794,7 +7806,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7901,13 +7913,13 @@
         <v>129668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H4" s="7">
         <v>292</v>
@@ -7916,13 +7928,13 @@
         <v>141631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M4" s="7">
         <v>470</v>
@@ -7931,13 +7943,13 @@
         <v>271299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7964,13 @@
         <v>25961</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>509</v>
+        <v>592</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -7967,13 +7979,13 @@
         <v>11571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M5" s="7">
         <v>61</v>
@@ -7982,13 +7994,13 @@
         <v>37531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>586</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>588</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +8015,13 @@
         <v>39682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -8018,13 +8030,13 @@
         <v>35067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>592</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>116</v>
@@ -8033,13 +8045,13 @@
         <v>74748</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>594</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8066,13 @@
         <v>47803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>605</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -8069,10 +8081,10 @@
         <v>41199</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>606</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>63</v>
@@ -8084,13 +8096,13 @@
         <v>89001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>592</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8170,13 @@
         <v>246701</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="H9" s="7">
         <v>334</v>
@@ -8173,13 +8185,13 @@
         <v>256870</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="M9" s="7">
         <v>524</v>
@@ -8188,13 +8200,13 @@
         <v>503571</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8221,13 @@
         <v>65480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>608</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -8224,13 +8236,13 @@
         <v>16749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -8239,13 +8251,13 @@
         <v>82229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>615</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8272,13 @@
         <v>72426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -8275,13 +8287,13 @@
         <v>58629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>619</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M11" s="7">
         <v>132</v>
@@ -8290,13 +8302,13 @@
         <v>131054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8323,13 @@
         <v>83981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>630</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -8326,13 +8338,13 @@
         <v>62835</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="M12" s="7">
         <v>140</v>
@@ -8341,13 +8353,13 @@
         <v>146816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>628</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8427,13 @@
         <v>160208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>308</v>
@@ -8430,13 +8442,13 @@
         <v>204828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -8445,13 +8457,13 @@
         <v>365036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8478,13 @@
         <v>49854</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -8481,13 +8493,13 @@
         <v>22434</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -8496,13 +8508,13 @@
         <v>72288</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8529,13 @@
         <v>36836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -8532,13 +8544,13 @@
         <v>34079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>656</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -8547,13 +8559,13 @@
         <v>70915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,10 +8583,10 @@
         <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -8583,13 +8595,13 @@
         <v>36226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>656</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>657</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -8601,10 +8613,10 @@
         <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>659</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8684,13 @@
         <v>148874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H19" s="7">
         <v>248</v>
@@ -8687,13 +8699,13 @@
         <v>193671</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -8702,13 +8714,13 @@
         <v>342545</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8735,13 @@
         <v>27516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -8738,13 +8750,13 @@
         <v>16889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>672</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -8753,13 +8765,13 @@
         <v>44405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8786,13 @@
         <v>52112</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -8789,13 +8801,13 @@
         <v>41663</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -8804,13 +8816,13 @@
         <v>93775</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>681</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8837,13 @@
         <v>69296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>683</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -8840,13 +8852,13 @@
         <v>67056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>686</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -8855,13 +8867,13 @@
         <v>136352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,7 +8929,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8929,13 +8941,13 @@
         <v>91250</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>233</v>
+        <v>692</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H24" s="7">
         <v>242</v>
@@ -8944,13 +8956,13 @@
         <v>109925</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M24" s="7">
         <v>381</v>
@@ -8959,13 +8971,13 @@
         <v>201175</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8992,13 @@
         <v>25301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>699</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>701</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>700</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -8995,13 +9007,13 @@
         <v>11583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -9010,13 +9022,13 @@
         <v>36884</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>705</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9043,13 @@
         <v>28009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -9046,10 +9058,10 @@
         <v>21489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>710</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>708</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>383</v>
@@ -9061,13 +9073,13 @@
         <v>49498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>711</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>712</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9085,10 +9097,10 @@
         <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>710</v>
+        <v>330</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H27" s="7">
         <v>48</v>
@@ -9097,13 +9109,13 @@
         <v>22757</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>712</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M27" s="7">
         <v>85</v>
@@ -9112,13 +9124,13 @@
         <v>48518</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,7 +9186,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9186,13 +9198,13 @@
         <v>153463</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>719</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -9201,13 +9213,13 @@
         <v>137217</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="M29" s="7">
         <v>465</v>
@@ -9216,13 +9228,13 @@
         <v>290680</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9249,13 @@
         <v>53148</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>724</v>
+        <v>528</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -9252,13 +9264,13 @@
         <v>15694</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -9267,13 +9279,13 @@
         <v>68843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9300,13 @@
         <v>22689</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -9303,13 +9315,13 @@
         <v>21597</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -9318,13 +9330,13 @@
         <v>44286</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9351,13 @@
         <v>29655</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -9354,13 +9366,13 @@
         <v>40861</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>743</v>
+        <v>83</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M32" s="7">
         <v>104</v>
@@ -9369,13 +9381,13 @@
         <v>70516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,7 +9443,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9443,13 +9455,13 @@
         <v>270618</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>416</v>
@@ -9458,13 +9470,13 @@
         <v>393172</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M34" s="7">
         <v>679</v>
@@ -9473,13 +9485,13 @@
         <v>663790</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9506,13 @@
         <v>82655</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>755</v>
+        <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>756</v>
+        <v>531</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>757</v>
       </c>
       <c r="H35" s="7">
         <v>65</v>
@@ -9509,13 +9521,13 @@
         <v>43568</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -9524,13 +9536,13 @@
         <v>126223</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>760</v>
+        <v>354</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>466</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,13 +9557,13 @@
         <v>102766</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H36" s="7">
         <v>154</v>
@@ -9560,13 +9572,13 @@
         <v>105984</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>765</v>
+        <v>71</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -9575,7 +9587,7 @@
         <v>208750</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>766</v>
@@ -9599,7 +9611,7 @@
         <v>768</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>769</v>
@@ -9614,7 +9626,7 @@
         <v>770</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>771</v>
@@ -9626,13 +9638,13 @@
         <v>222070</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>33</v>
+        <v>772</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>183</v>
+        <v>773</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>772</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,7 +9700,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9700,13 +9712,13 @@
         <v>359012</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>162</v>
+        <v>774</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="H39" s="7">
         <v>429</v>
@@ -9715,13 +9727,13 @@
         <v>336388</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="M39" s="7">
         <v>780</v>
@@ -9730,13 +9742,13 @@
         <v>695400</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9751,13 +9763,13 @@
         <v>169474</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="H40" s="7">
         <v>60</v>
@@ -9766,13 +9778,13 @@
         <v>44538</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>384</v>
+        <v>785</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="M40" s="7">
         <v>179</v>
@@ -9781,13 +9793,13 @@
         <v>214011</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>783</v>
+        <v>446</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,13 +9814,13 @@
         <v>119534</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>615</v>
+        <v>253</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H41" s="7">
         <v>113</v>
@@ -9817,13 +9829,13 @@
         <v>97216</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>406</v>
+        <v>790</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="M41" s="7">
         <v>229</v>
@@ -9832,13 +9844,13 @@
         <v>216750</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,13 +9865,13 @@
         <v>132414</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>791</v>
+        <v>514</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="H42" s="7">
         <v>116</v>
@@ -9868,10 +9880,10 @@
         <v>95770</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>795</v>
+        <v>405</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>767</v>
@@ -9883,13 +9895,13 @@
         <v>228184</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>798</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,13 +9969,13 @@
         <v>1559793</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="H44" s="7">
         <v>2519</v>
@@ -9972,13 +9984,13 @@
         <v>1773701</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="M44" s="7">
         <v>4182</v>
@@ -9987,13 +9999,13 @@
         <v>3333494</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,13 +10020,13 @@
         <v>499389</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>808</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>628</v>
+        <v>296</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H45" s="7">
         <v>288</v>
@@ -10023,13 +10035,13 @@
         <v>183026</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="M45" s="7">
         <v>776</v>
@@ -10038,13 +10050,13 @@
         <v>682415</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>390</v>
+        <v>173</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>278</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,13 +10071,13 @@
         <v>474054</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>275</v>
+        <v>814</v>
       </c>
       <c r="H46" s="7">
         <v>590</v>
@@ -10074,13 +10086,13 @@
         <v>415723</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>288</v>
+        <v>815</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M46" s="7">
         <v>1069</v>
@@ -10089,13 +10101,13 @@
         <v>889777</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10110,13 +10122,13 @@
         <v>530212</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>815</v>
+        <v>442</v>
       </c>
       <c r="H47" s="7">
         <v>685</v>
@@ -10125,13 +10137,13 @@
         <v>485268</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>100</v>
+        <v>820</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>816</v>
+        <v>197</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="M47" s="7">
         <v>1239</v>
@@ -10140,13 +10152,13 @@
         <v>1015480</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,7 +10214,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
